--- a/RPATemplete/Data/Config.xlsx
+++ b/RPATemplete/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPATemplete\RPATemplete\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA869FC-EFD7-41F4-B486-4F4105BDF36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1164" windowWidth="17928" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -82,46 +82,127 @@
   </si>
   <si>
     <t>System exception.</t>
-  </si>
-  <si>
-    <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>OrchestratorFolderName</t>
+  </si>
+  <si>
+    <t>default is Shared</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>DefaultQueue</t>
+  </si>
+  <si>
+    <t>PathProcess</t>
+  </si>
+  <si>
+    <t>D:\RPA\{0}\process\{1}</t>
+  </si>
+  <si>
+    <t>path for process files</t>
+  </si>
+  <si>
+    <t>sapUserName</t>
+  </si>
+  <si>
+    <t>sapFAUserName</t>
+  </si>
+  <si>
+    <t>Bots No.1 Oishi</t>
+  </si>
+  <si>
+    <t>sapPassword</t>
+  </si>
+  <si>
+    <t>sapFAPassword</t>
+  </si>
+  <si>
+    <t>thaibevRPAMailUserName</t>
+  </si>
+  <si>
+    <t>thaibevRPAMailPassword</t>
+  </si>
+  <si>
+    <t>sapUATUserName</t>
+  </si>
+  <si>
+    <t>sapUATPassword</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
+  </si>
+  <si>
+    <t>logF_BusinessProcessName</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>ProcessName</t>
+  </si>
+  <si>
+    <t>RPAProcessName</t>
+  </si>
+  <si>
+    <t>change name for your process name format is "RPA" + CompanyName + process ex. RPAOishiBankStatement</t>
+  </si>
+  <si>
+    <t>MailSubject</t>
+  </si>
+  <si>
+    <t>MailBody</t>
+  </si>
+  <si>
+    <t>[RPA_XXXXX] Master Templete on {0}</t>
+  </si>
+  <si>
+    <t>MailFolderInbox</t>
+  </si>
+  <si>
+    <t>bots_SOP_inbox</t>
+  </si>
+  <si>
+    <t>MailFolderMoveTo</t>
+  </si>
+  <si>
+    <t>bots_SOP</t>
+  </si>
+  <si>
+    <t>ThaibevOACEmailPassword</t>
+  </si>
+  <si>
+    <t>ThaibevOACEmailUserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear All &lt;br/&gt;This is auto email from Master Templete Bot.&lt;br/&gt;Detail is : </t>
   </si>
 </sst>
 </file>
@@ -499,16 +580,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -546,34 +627,92 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.4">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="28.8">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1574,12 +1713,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1616,7 +1755,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1648,7 +1787,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1670,7 +1809,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1681,7 +1820,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1692,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2680,18 +2819,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2702,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2730,12 +2869,72 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3727,8 +3926,6 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPATemplete/Data/Config.xlsx
+++ b/RPATemplete/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPATemplete\RPATemplete\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA869FC-EFD7-41F4-B486-4F4105BDF36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A8F9B4-8085-4138-91D3-FFDD7726D199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1164" windowWidth="17928" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>D:\RPA\{0}\process\{1}</t>
   </si>
   <si>
-    <t>path for process files</t>
-  </si>
-  <si>
     <t>sapUserName</t>
   </si>
   <si>
@@ -181,21 +178,12 @@
     <t>MailBody</t>
   </si>
   <si>
-    <t>[RPA_XXXXX] Master Templete on {0}</t>
-  </si>
-  <si>
     <t>MailFolderInbox</t>
   </si>
   <si>
-    <t>bots_SOP_inbox</t>
-  </si>
-  <si>
     <t>MailFolderMoveTo</t>
   </si>
   <si>
-    <t>bots_SOP</t>
-  </si>
-  <si>
     <t>ThaibevOACEmailPassword</t>
   </si>
   <si>
@@ -203,13 +191,33 @@
   </si>
   <si>
     <t xml:space="preserve">Dear All &lt;br/&gt;This is auto email from Master Templete Bot.&lt;br/&gt;Detail is : </t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>bots</t>
+  </si>
+  <si>
+    <t>path for process files is details
+1. {0} get data from config excel value name is "ProcessName"
+2. {1} bot genarate from date now</t>
+  </si>
+  <si>
+    <t>[RPA_ProcessName] Master Templete on {0}</t>
+  </si>
+  <si>
+    <t>MailException</t>
+  </si>
+  <si>
+    <t>rpa@thaibev.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -233,6 +241,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,10 +265,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -264,8 +279,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -628,18 +645,18 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -659,7 +676,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5" spans="1:26" ht="43.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -667,53 +684,60 @@
         <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="28.8">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1696,14 +1720,13 @@
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
     <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{EB7444D4-9CFA-4278-A2ED-0B4E09293390}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1711,7 +1734,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2822,7 +2847,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2871,32 +2896,32 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -2904,10 +2929,10 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -2915,10 +2940,10 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -2926,10 +2951,10 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>

--- a/RPATemplete/Data/Config.xlsx
+++ b/RPATemplete/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPATemplete\RPATemplete\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA869FC-EFD7-41F4-B486-4F4105BDF36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE20D5F0-0CB4-4F85-B9BD-235724A05E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1164" windowWidth="17928" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dear All &lt;br/&gt;This is auto email from Master Templete Bot.&lt;br/&gt;Detail is : </t>
+  </si>
+  <si>
+    <t>MailException</t>
+  </si>
+  <si>
+    <t>parnupon.k@thaibev.com</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -264,6 +270,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +588,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1711,7 +1718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1835,7 +1844,14 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/RPATemplete/Data/Config.xlsx
+++ b/RPATemplete/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaibev\RPATemplete\RPATemplete\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE20D5F0-0CB4-4F85-B9BD-235724A05E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B4F9B1-B88E-48AB-8755-75374C1B7BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -130,16 +130,7 @@
     <t>sapUserName</t>
   </si>
   <si>
-    <t>sapFAUserName</t>
-  </si>
-  <si>
-    <t>Bots No.1 Oishi</t>
-  </si>
-  <si>
     <t>sapPassword</t>
-  </si>
-  <si>
-    <t>sapFAPassword</t>
   </si>
   <si>
     <t>thaibevRPAMailUserName</t>
@@ -587,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -635,18 +626,18 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -679,45 +670,45 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="28.8">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1846,10 +1837,10 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2837,8 +2828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2890,29 +2881,29 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -2920,10 +2911,10 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -2931,10 +2922,10 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -2942,10 +2933,10 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
